--- a/public/descargables/plantilla-reclutamiento.xlsx
+++ b/public/descargables/plantilla-reclutamiento.xlsx
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="8">
-        <v>42850</v>
+        <v>42849</v>
       </c>
       <c r="J2" s="9">
         <v>0.375</v>
